--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>TcName</t>
   </si>
@@ -43,13 +43,22 @@
   </si>
   <si>
     <t>ExecFilter</t>
+  </si>
+  <si>
+    <t>ExpTitle</t>
+  </si>
+  <si>
+    <t>Find a Flight: Mercury Tours:</t>
+  </si>
+  <si>
+    <t>Sign-on: Mercury Tours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +66,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +97,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,62 +421,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -446,7 +501,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -458,7 +513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
